--- a/data/trans_media/Q33-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q33-Habitat-trans_media.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,75</t>
+          <t>7,43; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,54</t>
+          <t>7,09; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,43</t>
+          <t>6,95; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,53</t>
+          <t>7,19; 7,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,44</t>
+          <t>6,9; 7,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 7,51</t>
+          <t>6,88; 7,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 6,88</t>
+          <t>6,51; 6,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,61</t>
+          <t>7,37; 7,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,41</t>
+          <t>7,08; 7,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,52</t>
+          <t>7,14; 7,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 7,08</t>
+          <t>6,77; 7,09</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,7</t>
+          <t>7,53; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,49</t>
+          <t>7,26; 7,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,73</t>
+          <t>7,52; 7,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,28</t>
+          <t>7,1; 7,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,4</t>
+          <t>7,17; 7,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,58</t>
+          <t>7,45; 7,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,31</t>
+          <t>7,15; 7,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,52</t>
+          <t>7,38; 7,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 7,15</t>
+          <t>7,02; 7,15</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,66</t>
+          <t>7,51; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,47</t>
+          <t>7,32; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,5</t>
+          <t>7,37; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,62</t>
+          <t>7,23; 7,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,32</t>
+          <t>7,15; 7,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,27</t>
+          <t>7,12; 7,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,18</t>
+          <t>7,04; 7,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,38</t>
+          <t>7,26; 7,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,4</t>
+          <t>7,17; 7,38</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,54</t>
+          <t>7,35; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,26</t>
+          <t>7,05; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,31</t>
+          <t>7,12; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,37</t>
+          <t>7,19; 7,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,13</t>
+          <t>6,6; 7,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,41</t>
+          <t>7,28; 7,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,14</t>
+          <t>6,79; 7,15</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,58</t>
+          <t>7,45; 7,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,49</t>
+          <t>7,33; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,15</t>
+          <t>7,0; 7,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,21</t>
+          <t>7,05; 7,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,1</t>
+          <t>7,0; 7,1</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,34; 7,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,31</t>
+          <t>7,15; 7,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,43</t>
+          <t>7,36; 7,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,22</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,91; 7,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,32</t>
+          <t>7,25; 7,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,15</t>
+          <t>7,04; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q33-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q33-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,75</t>
+          <t>7,42; 7,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,54</t>
+          <t>7,1; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,71</t>
+          <t>7,24; 7,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,53</t>
+          <t>7,19; 7,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,46</t>
+          <t>6,89; 7,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 7,49</t>
+          <t>6,87; 7,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,4</t>
+          <t>7,06; 7,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,52</t>
+          <t>7,13; 7,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,69</t>
+          <t>7,52; 7,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,49</t>
+          <t>7,27; 7,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,71</t>
+          <t>7,51; 7,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,4</t>
+          <t>7,18; 7,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,31</t>
+          <t>7,17; 7,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,53</t>
+          <t>7,37; 7,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,67</t>
+          <t>7,52; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,47</t>
+          <t>7,31; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,5</t>
+          <t>7,36; 7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,46</t>
+          <t>7,3; 7,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,33</t>
+          <t>7,15; 7,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,37</t>
+          <t>7,26; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,53</t>
+          <t>7,35; 7,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,31</t>
+          <t>7,13; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,38</t>
+          <t>7,18; 7,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,42</t>
+          <t>7,28; 7,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,58</t>
+          <t>7,44; 7,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,5</t>
+          <t>7,33; 7,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,2</t>
+          <t>7,04; 7,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,56</t>
+          <t>7,45; 7,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,3</t>
+          <t>7,17; 7,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,5</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,39</t>
+          <t>7,32; 7,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
